--- a/wwwroot/template/consolidado/template_consolidado.xlsx
+++ b/wwwroot/template/consolidado/template_consolidado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SION\api_guardian\wwwroot\template\consolidado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A34ACBF-1F9B-4FF1-86C2-B3F2B2A7DB04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69A1DD2-38F9-4983-B55D-FED6AC197B24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" xr2:uid="{7720E221-A103-4907-BE8D-B2DBDB38FD28}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>REPORTE EMPRESA CONSOLIDADO COMISION - SERVICIO</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Empresa</t>
+  </si>
+  <si>
+    <t>Total comisiones $us</t>
   </si>
 </sst>
 </file>
@@ -459,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97191483-70E0-4CD9-A1D6-6769BE073038}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,47 +474,48 @@
     <col min="3" max="3" width="56.6640625" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="D2" s="6"/>
-      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -527,26 +531,29 @@
       <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4">
         <v>0.13</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>0.87</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="5"/>
     </row>
   </sheetData>

--- a/wwwroot/template/consolidado/template_consolidado.xlsx
+++ b/wwwroot/template/consolidado/template_consolidado.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SION\api_guardian\wwwroot\template\consolidado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69A1DD2-38F9-4983-B55D-FED6AC197B24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9866AC-9675-4C0C-8289-61D7F04F5F7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" xr2:uid="{7720E221-A103-4907-BE8D-B2DBDB38FD28}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,9 +506,10 @@
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
